--- a/docs/assets/disciplinas/LOQ4091.xlsx
+++ b/docs/assets/disciplinas/LOQ4091.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,53 +70,40 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Disciplina integradora que visa desenvolver projetos na área de Engenharia Química, com especificidade em Processos Químicos.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
   </si>
   <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>198273 - Domingos Savio Giordani</t>
+    <t>Programa resumido:</t>
   </si>
   <si>
     <t>5817045 - Elisângela de Jesus Cândido Moraes</t>
   </si>
   <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
     <t>5817344 - Livia Melo Carneiro</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1.Conhecer modelos de elaboração de projetos: Conceitos gerais, diferentes modelos de projetos. 
-2.Elaborar projetos: Definição da problemática, justificativas, objetivos e hipóteses, bases teóricas fundamentais, metodologia, cronograma, resultados esperados. 
-3.Executar as etapas do projeto, buscando eventuais mudanças de direcionamento. 
-4.Finalizar o projeto redigindo e avaliando os resultados finais. Apresentação de protótipo.
-5.Estudos preliminares de ampliação de escala do projeto.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Integrar, através de atividades de projeto contextualizado, os conhecimentos desenvolvidos nas unidades curriculares das disciplinas de Química Geral, Química Geral Experimental, Introdução à Engenharia Química e Balanço de Massa e Energia. Desenvolver competências de trabalho em equipe, comunicação oral e escrita, resolução de problemas, pensamento crítico, pensamento criativo, metodologia de desenvolvimento de projetos visando ao desenvolvimento das competências adquiridas no curso através de aplicação em projetos na área de Processos Químicos.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Avaliação de Projeto: 
@@ -125,37 +112,17 @@
 -Avaliação pelos pares.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = Nota de Projeto 
 Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(Prova escrita + Média Final)/2         Nota Final Mínima para Aprovação= 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Powell, P. C., &amp; Weenk, W. (2003). Project-Led Engineering Education. Utrecht: Lemma.
-UNESCO (2010). Engineering: Issues, Challenges and Opportunities for Development. Paris, France, United Nations Educational, Scientific and Cultural Organization. Retrieved from http://unesdoc.unesco.org/images/0018/001897/189753e.pdf
-Lima, R. M., Carvalho, D., Sousa, R. M., Alves, A., Moreira, F., Mesquita, D., &amp; Fernandes, S. (2011). Estrutura de Gestão para Planejamento e Execução de Projetos Interdisciplinares de Aprendizagem em Engenharia. In L. C. d. Campos, E. A. T. Dirani &amp; A. L. Manrique (Eds.),Educação em Engenharia: Novas Abordagens (pp. 87-121). São Paulo, Brasil: EDUC  Editora da PUC-SP.
-Fernandes, S., Flores, M. A., &amp; Lima, R. M. (2011). A Avaliação dos Alunos no Contexto de um Projeto Interdisciplinar. In L. C. d. Campos, E. A. T. Dirani &amp; A. L. Manrique (Eds.), Educação em Engenharia: Novas Abordagens (pp. 219-280). São Paulo, Brasil: EDUC  Editora da PUC-SP.
-ATKINS, Peter., Princípios de Química, questionando a vida moderna e o meio ambiente. 3ª Ed. Porto Alegre: Editora Bookman, 2006.
-BRADY, J ; HUMISTON, G.E. Química geral. Rio de Janeiro: Ed. Livros Técnicos Científicos, 1981.
-BROWN, T.L. ET al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007.
-CHANG, Raymond. Química geral: conceitos essenciais. 4.ed. s.l.:Ed. AMGH Editora Ltda., 2010. 
-RUSSEL, J.B. Química geral. São Paulo: MacGrall-Hill
-MIHELCIC, J. R. Fundamentals of Environmental Engineering. John Wiley &amp; Sons, 1998.
-HIMMELBLAU, D. M. Engenharia Química Princípios e Cálculos. Prentice-Hall do Brasil. 1998.
-FELDER, R.M. &amp; ROUSSEAU, R.W. Princípios Elementares dos Processos Químicos. LTC, 2005.
-SHREVE, R. Norris; BRINK JR, Joseph A. Indústria de processos químicos. Rio de Janeiro: Guanabara Dois, 1980.
-BRASIL, Nilo Indio do. Introdução a engenharia química. Rio de Janeiro: Interciencia/Petrobras, 2004.
-CREMASCO, Marco Aurélio. Engenharia química. Ed. Edgard Blucher, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -522,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,143 +609,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="120" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="120" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4091.xlsx
+++ b/docs/assets/disciplinas/LOQ4091.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,16 +70,35 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Disciplina integradora que visa desenvolver projetos na área de Engenharia Química, com especificidade em Processos Químicos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
-    <t>Objectives:</t>
+    <t>5817045 - Elisângela de Jesus Cândido Moraes</t>
+  </si>
+  <si>
+    <t>5817344 - Livia Melo Carneiro</t>
+  </si>
+  <si>
+    <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>5817045 - Elisângela de Jesus Cândido Moraes</t>
+    <t>1.Conhecer modelos de elaboração de projetos: Conceitos gerais, diferentes modelos de projetos. 
+2.Elaborar projetos: Definição da problemática, justificativas, objetivos e hipóteses, bases teóricas fundamentais, metodologia, cronograma, resultados esperados. 
+3.Executar as etapas do projeto, buscando eventuais mudanças de direcionamento. 
+4.Finalizar o projeto redigindo e avaliando os resultados finais. Apresentação de protótipo.
+5.Estudos preliminares de ampliação de escala do projeto.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,7 +107,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>5817344 - Livia Melo Carneiro</t>
+    <t>Integrar, através de atividades de projeto contextualizado, os conhecimentos desenvolvidos nas unidades curriculares das disciplinas de Química Geral, Química Geral Experimental, Introdução à Engenharia Química e Balanço de Massa e Energia. Desenvolver competências de trabalho em equipe, comunicação oral e escrita, resolução de problemas, pensamento crítico, pensamento criativo, metodologia de desenvolvimento de projetos visando ao desenvolvimento das competências adquiridas no curso através de aplicação em projetos na área de Processos Químicos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -98,12 +117,6 @@
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>787307 - Luis Fernando Figueiredo Faria</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>Avaliação de Projeto: 
@@ -112,17 +125,37 @@
 -Avaliação pelos pares.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Média Final = Nota de Projeto 
 Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>(Prova escrita + Média Final)/2         Nota Final Mínima para Aprovação= 5,0</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(Prova escrita + Média Final)/2         Nota Final Mínima para Aprovação= 5,0</t>
+    <t>Powell, P. C., &amp; Weenk, W. (2003). Project-Led Engineering Education. Utrecht: Lemma.
+UNESCO (2010). Engineering: Issues, Challenges and Opportunities for Development. Paris, France, United Nations Educational, Scientific and Cultural Organization. Retrieved from http://unesdoc.unesco.org/images/0018/001897/189753e.pdf
+Lima, R. M., Carvalho, D., Sousa, R. M., Alves, A., Moreira, F., Mesquita, D., &amp; Fernandes, S. (2011). Estrutura de Gestão para Planejamento e Execução de Projetos Interdisciplinares de Aprendizagem em Engenharia. In L. C. d. Campos, E. A. T. Dirani &amp; A. L. Manrique (Eds.),Educação em Engenharia: Novas Abordagens (pp. 87-121). São Paulo, Brasil: EDUC  Editora da PUC-SP.
+Fernandes, S., Flores, M. A., &amp; Lima, R. M. (2011). A Avaliação dos Alunos no Contexto de um Projeto Interdisciplinar. In L. C. d. Campos, E. A. T. Dirani &amp; A. L. Manrique (Eds.), Educação em Engenharia: Novas Abordagens (pp. 219-280). São Paulo, Brasil: EDUC  Editora da PUC-SP.
+ATKINS, Peter., Princípios de Química, questionando a vida moderna e o meio ambiente. 3ª Ed. Porto Alegre: Editora Bookman, 2006.
+BRADY, J ; HUMISTON, G.E. Química geral. Rio de Janeiro: Ed. Livros Técnicos Científicos, 1981.
+BROWN, T.L. ET al. Química a ciência central. 9.ed. São Paulo: Pearson Prentice Hall, 2005-2007.
+CHANG, Raymond. Química geral: conceitos essenciais. 4.ed. s.l.:Ed. AMGH Editora Ltda., 2010. 
+RUSSEL, J.B. Química geral. São Paulo: MacGrall-Hill
+MIHELCIC, J. R. Fundamentals of Environmental Engineering. John Wiley &amp; Sons, 1998.
+HIMMELBLAU, D. M. Engenharia Química Princípios e Cálculos. Prentice-Hall do Brasil. 1998.
+FELDER, R.M. &amp; ROUSSEAU, R.W. Princípios Elementares dos Processos Químicos. LTC, 2005.
+SHREVE, R. Norris; BRINK JR, Joseph A. Indústria de processos químicos. Rio de Janeiro: Guanabara Dois, 1980.
+BRASIL, Nilo Indio do. Introdução a engenharia química. Rio de Janeiro: Interciencia/Petrobras, 2004.
+CREMASCO, Marco Aurélio. Engenharia química. Ed. Edgard Blucher, 2005.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -489,13 +522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,106 +642,143 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1">
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
